--- a/04 - Exams/Final Exam/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/Scratch Work.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/PDF Submission/Solution Checks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2365" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B41E0753-2CBD-4017-8708-1ADC1440DECC}"/>
+  <xr:revisionPtr revIDLastSave="2386" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEAAD1BB-B0B8-493E-98E0-BDF5F57C5862}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -644,11 +644,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
@@ -1503,7 +1502,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,6 +1605,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1616,7 +1615,27 @@
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4398,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23D72E-2E03-44F7-817D-AFC9835123F9}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,8 +4767,8 @@
   </sheetPr>
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4854,7 +4873,7 @@
         <f>D6</f>
         <v>2</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="105">
         <f>E6</f>
         <v>0.24319750469207169</v>
       </c>
@@ -4963,11 +4982,11 @@
         <v>47</v>
       </c>
       <c r="C18" s="25">
-        <f>INDEX(C13:C16, MATCH(D18, D13:D16, 0), 1)</f>
+        <f>IFERROR(INDEX(C13:C16, MATCH($E18, $E13:$E16, 0), 1), C10)</f>
         <v>3</v>
       </c>
       <c r="D18" s="25">
-        <f>INDEX(D13:D16, MATCH(E18, E13:E16, 0), 1)</f>
+        <f>IFERROR(INDEX(D13:D16, MATCH($E18, $E13:$E16, 0), 1), D10)</f>
         <v>2</v>
       </c>
       <c r="E18" s="29">
@@ -5053,7 +5072,7 @@
         <f>D23</f>
         <v>2</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="105">
         <f>E23</f>
         <v>-1.7005928892065527</v>
       </c>
@@ -5162,11 +5181,11 @@
         <v>47</v>
       </c>
       <c r="C34" s="25">
-        <f>INDEX(C29:C32, MATCH(D34, D29:D32, 0), 1)</f>
+        <f>IFERROR(INDEX(C29:C32, MATCH($E34, $E29:$E32, 0), 1), C26)</f>
         <v>3</v>
       </c>
       <c r="D34" s="25">
-        <f>INDEX(D29:D32, MATCH(E34, E29:E32, 0), 1)</f>
+        <f>IFERROR(INDEX(D29:D32, MATCH($E34, $E29:$E32, 0), 1), D26)</f>
         <v>1</v>
       </c>
       <c r="E34" s="29">
@@ -5252,7 +5271,7 @@
         <f>D39</f>
         <v>1</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="105">
         <f>E39</f>
         <v>-1.9991498832004151</v>
       </c>
@@ -5360,11 +5379,11 @@
         <v>47</v>
       </c>
       <c r="C50" s="25">
-        <f>IFERROR(INDEX(C45:C48, MATCH(D50, D45:D48, 0), 1), C39)</f>
-        <v>4</v>
+        <f>IFERROR(INDEX(C45:C48, MATCH($E50, $E45:$E48, 0), 1), C42)</f>
+        <v>3</v>
       </c>
       <c r="D50" s="25">
-        <f>IFERROR(INDEX(D45:D48, MATCH(E50, E45:E48, 0), 1), D39)</f>
+        <f>IFERROR(INDEX(D45:D48, MATCH($E50, $E45:$E48, 0), 1), D42)</f>
         <v>1</v>
       </c>
       <c r="E50" s="29">
@@ -5399,27 +5418,35 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
     <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C52">
     <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",C52)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5457,39 +5484,39 @@
     <col min="30" max="30" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" s="57" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="2:30" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="58"/>
-      <c r="J2" s="60" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="J2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="O2" s="60" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="O2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="T2" s="60" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="Y2" s="60" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="Y2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AD2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AD2" s="58"/>
     </row>
     <row r="3" spans="2:30" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="19" t="s">
@@ -5549,7 +5576,7 @@
       <c r="AC3" s="26"/>
     </row>
     <row r="4" spans="2:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="3">
@@ -5613,7 +5640,7 @@
         <f>U4 * COS(U4) * SIN(V4) + 0.5*V4</f>
         <v>-2</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="Y4" s="55" t="s">
         <v>57</v>
       </c>
       <c r="Z4" s="3">
@@ -5629,38 +5656,38 @@
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <f>$AA$4 - C4</f>
         <v>-3</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <f>$AA$4 - D4</f>
         <v>-2</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <f>$AA$4 - K4</f>
         <v>-4</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="47">
         <f>$AA$4 - L4</f>
         <v>-2</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="48">
+      <c r="P5" s="47">
         <f>$AA$4 - P4</f>
         <v>-4</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="47">
         <f>$AA$4 - Q4</f>
         <v>-1</v>
       </c>
       <c r="T5" s="6"/>
-      <c r="U5" s="48">
+      <c r="U5" s="47">
         <f>$AA$4 - U4</f>
         <v>-4</v>
       </c>
-      <c r="V5" s="48">
+      <c r="V5" s="47">
         <f>$AA$4 - V4</f>
         <v>0</v>
       </c>
@@ -5679,7 +5706,7 @@
       <c r="E6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="32" t="str">
@@ -5725,7 +5752,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
-      <c r="AD6" s="47"/>
+      <c r="AD6" s="46"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
@@ -5776,18 +5803,18 @@
         <f t="shared" ref="R7:R10" si="7">P7 * COS(P7) * SIN(Q7) + 0.5*Q7</f>
         <v>-1.5762474657588768</v>
       </c>
-      <c r="T7" s="52" t="s">
+      <c r="T7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="53">
+      <c r="U7" s="52">
         <f>U4 + 1</f>
         <v>1</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="52">
         <f>V4</f>
         <v>-4</v>
       </c>
-      <c r="W7" s="54">
+      <c r="W7" s="53">
         <f t="shared" ref="W7:W10" si="8">U7 * COS(U7) * SIN(V7) + 0.5*V7</f>
         <v>-1.5910978666983644</v>
       </c>
@@ -6068,29 +6095,29 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="J14" s="6"/>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <f>$AA$4 - K13</f>
         <v>-2</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="47">
         <f>$AA$4 - L13</f>
         <v>-2</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="48">
+      <c r="P14" s="47">
         <f>$AA$4 - P13</f>
         <v>-1</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="47">
         <f>$AA$4 - Q13</f>
         <v>-2</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="48">
+      <c r="U14" s="47">
         <f>$AA$4 - U13</f>
         <v>0</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="47">
         <f>$AA$4 - V13</f>
         <v>-2</v>
       </c>
@@ -6405,29 +6432,29 @@
     </row>
     <row r="23" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J23" s="6"/>
-      <c r="K23" s="48">
+      <c r="K23" s="47">
         <f>$AA$4 - K22</f>
         <v>-3</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="47">
         <f>$AA$4 - L22</f>
         <v>-3</v>
       </c>
       <c r="O23" s="6"/>
-      <c r="P23" s="48">
+      <c r="P23" s="47">
         <f>$AA$4 - P22</f>
         <v>-2</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="47">
         <f>$AA$4 - Q22</f>
         <v>-3</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="48">
+      <c r="U23" s="47">
         <f>$AA$4 - U22</f>
         <v>-1</v>
       </c>
-      <c r="V23" s="48">
+      <c r="V23" s="47">
         <f>$AA$4 - V22</f>
         <v>-3</v>
       </c>
@@ -6717,20 +6744,20 @@
     </row>
     <row r="32" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J32" s="6"/>
-      <c r="K32" s="48">
+      <c r="K32" s="47">
         <f>$AA$4 - K31</f>
         <v>-3</v>
       </c>
-      <c r="L32" s="48">
+      <c r="L32" s="47">
         <f>$AA$4 - L31</f>
         <v>-1</v>
       </c>
       <c r="O32" s="6"/>
-      <c r="P32" s="48">
+      <c r="P32" s="47">
         <f>$AA$4 - P31</f>
         <v>-3</v>
       </c>
-      <c r="Q32" s="48">
+      <c r="Q32" s="47">
         <f>$AA$4 - Q31</f>
         <v>0</v>
       </c>
@@ -6875,18 +6902,18 @@
         <f t="shared" si="25"/>
         <v>-2.4089021333016358</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37" s="49">
         <f>P31</f>
         <v>-1</v>
       </c>
-      <c r="Q37" s="50">
+      <c r="Q37" s="49">
         <f>Q31 - 1</f>
         <v>-5</v>
       </c>
-      <c r="R37" s="51">
+      <c r="R37" s="50">
         <f t="shared" si="26"/>
         <v>-3.0181089967534271</v>
       </c>
@@ -6896,37 +6923,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="top10" dxfId="10" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M10">
-    <cfRule type="top10" dxfId="9" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M19">
-    <cfRule type="top10" dxfId="8" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:M28">
-    <cfRule type="top10" dxfId="7" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M37">
-    <cfRule type="top10" dxfId="6" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R10">
-    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R19">
-    <cfRule type="top10" dxfId="4" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R28">
-    <cfRule type="top10" dxfId="3" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W10">
-    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16:W19">
-    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W28">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
@@ -6949,16 +6976,16 @@
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="82" t="s">
+    <row r="2" spans="2:9" s="82" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -7015,73 +7042,73 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="80" t="str">
+      <c r="I9" s="79" t="str">
         <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
         <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="66">
+      <c r="B10" s="65">
         <v>1</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>1</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="62">
         <v>0</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>0</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="62">
         <v>0</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="62">
         <v>1</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="64">
         <f>SUMPRODUCT(C10:G10, C$5:G$5)</f>
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="str">
+      <c r="I10" s="80" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H10)</f>
         <v>=SUMPRODUCT(C10:G10, C$5:G$5)</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
+      <c r="B11" s="66">
         <f>B10 + 1</f>
         <v>2</v>
       </c>
@@ -7100,17 +7127,17 @@
       <c r="G11" s="34">
         <v>1</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <f t="shared" ref="H11:H13" si="3">SUMPRODUCT(C11:G11, C$5:G$5)</f>
         <v>8</v>
       </c>
-      <c r="I11" s="81" t="str">
+      <c r="I11" s="80" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H11)</f>
         <v>=SUMPRODUCT(C11:G11, C$5:G$5)</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
+      <c r="B12" s="66">
         <f t="shared" ref="B12:B13" si="4">B11 + 1</f>
         <v>3</v>
       </c>
@@ -7129,93 +7156,93 @@
       <c r="G12" s="34">
         <v>1</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I12" s="81" t="str">
+      <c r="I12" s="80" t="str">
         <f t="shared" ref="I12:I13" ca="1" si="5">_xlfn.FORMULATEXT(H12)</f>
         <v>=SUMPRODUCT(C12:G12, C$5:G$5)</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="69">
+      <c r="B13" s="68">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="69">
         <v>1</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="69">
         <v>1</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="69">
         <v>0</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>0</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="69">
         <v>0</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I13" s="81" t="str">
+      <c r="I13" s="80" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>=SUMPRODUCT(C13:G13, C$5:G$5)</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71">
         <f>SUM(H10:H13)</f>
         <v>28</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="68"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="I16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="2:9" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="79" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="66">
+      <c r="B18" s="65">
         <v>1</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="73">
         <f t="shared" ref="C18:C21" si="6">H10</f>
         <v>6</v>
       </c>
@@ -7223,21 +7250,21 @@
         <f>$H$14</f>
         <v>28</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="76">
         <f>C18 / D18</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="F18" s="81" t="str">
+      <c r="F18" s="80" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E18)</f>
         <v>=C18 / D18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="67">
+      <c r="B19" s="66">
         <f>B18 + 1</f>
         <v>2</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="73">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -7245,21 +7272,21 @@
         <f t="shared" ref="D19:D21" si="7">$H$14</f>
         <v>28</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="77">
         <f t="shared" ref="E19:E21" si="8">C19 / D19</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F19" s="81" t="str">
+      <c r="F19" s="80" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E19)</f>
         <v>=C19 / D19</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="67">
+      <c r="B20" s="66">
         <f t="shared" ref="B20:B21" si="9">B19 + 1</f>
         <v>3</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="73">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -7267,21 +7294,21 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="77">
         <f t="shared" si="8"/>
         <v>0.39285714285714285</v>
       </c>
-      <c r="F20" s="81" t="str">
+      <c r="F20" s="80" t="str">
         <f t="shared" ref="F20:F21" ca="1" si="10">_xlfn.FORMULATEXT(E20)</f>
         <v>=C20 / D20</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="69">
+      <c r="B21" s="68">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="74">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -7289,100 +7316,100 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="78">
         <f t="shared" si="8"/>
         <v>0.10714285714285714</v>
       </c>
-      <c r="F21" s="81" t="str">
+      <c r="F21" s="80" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>=C21 / D21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="82" t="s">
+    <row r="23" spans="2:9" s="82" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="80" t="str">
+      <c r="I29" s="79" t="str">
         <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
         <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="67">
+      <c r="B30" s="66">
         <v>2</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="83">
         <v>0</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="83">
         <v>1</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="85">
         <v>0</v>
       </c>
-      <c r="F30" s="86">
+      <c r="F30" s="85">
         <v>1</v>
       </c>
-      <c r="G30" s="86">
+      <c r="G30" s="85">
         <v>1</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="64">
         <f t="shared" ref="H30:H31" si="11">SUMPRODUCT(C30:G30, C$5:G$5)</f>
         <v>11</v>
       </c>
@@ -7391,26 +7418,26 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="69">
+      <c r="B31" s="68">
         <f t="shared" ref="B31" si="12">B30 + 1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="84">
         <v>1</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="84">
         <v>1</v>
       </c>
-      <c r="E31" s="87">
+      <c r="E31" s="86">
         <v>0</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F31" s="86">
         <v>0</v>
       </c>
-      <c r="G31" s="87">
+      <c r="G31" s="86">
         <v>0</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="70">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
@@ -7419,121 +7446,121 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="80" t="str">
+      <c r="I34" s="79" t="str">
         <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
         <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="83">
         <v>0</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="83">
         <v>1</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="86">
         <v>0</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F35" s="86">
         <v>0</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G35" s="86">
         <v>0</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="64">
         <f t="shared" ref="H35:H36" si="13">SUMPRODUCT(C35:G35, C$5:G$5)</f>
         <v>2</v>
       </c>
-      <c r="I35" s="81" t="str">
+      <c r="I35" s="80" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H35)</f>
         <v>=SUMPRODUCT(C35:G35, C$5:G$5)</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="84">
         <v>1</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="84">
         <v>1</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="85">
         <v>0</v>
       </c>
-      <c r="F36" s="86">
+      <c r="F36" s="85">
         <v>1</v>
       </c>
-      <c r="G36" s="86">
+      <c r="G36" s="85">
         <v>1</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="70">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I36" s="81" t="str">
+      <c r="I36" s="80" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H36)</f>
         <v>=SUMPRODUCT(C36:G36, C$5:G$5)</v>
       </c>
     </row>
-    <row r="38" spans="2:9" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B38" s="82" t="s">
+    <row r="38" spans="2:9" s="82" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B38" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="89" t="str">
+      <c r="C40" s="88" t="str">
         <f>B36 &amp; " (Fitness Value of " &amp; H36 &amp; ")"</f>
         <v>Offspring 2 (Fitness Value of 12)</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -7559,133 +7586,133 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-    </row>
-    <row r="4" spans="2:19" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="93" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+    </row>
+    <row r="4" spans="2:19" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="K4" s="93" t="s">
+      <c r="I4" s="92"/>
+      <c r="K4" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="P4" s="93" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="P4" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-    </row>
-    <row r="5" spans="2:19" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="99" t="s">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+    </row>
+    <row r="5" spans="2:19" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="P5" s="99" t="s">
+      <c r="P5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="99" t="s">
+      <c r="R5" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="99" t="s">
+      <c r="S5" s="98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+    <row r="6" spans="2:19" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="96" t="s">
+      <c r="M6" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="97" t="s">
+      <c r="N6" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="97" t="s">
+      <c r="O6" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="96" t="s">
+      <c r="Q6" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="96" t="s">
+      <c r="R6" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="97" t="s">
+      <c r="S6" s="96" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7693,44 +7720,44 @@
       <c r="C7" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="94">
         <f>F7 + N7</f>
         <v>12.1</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="94">
         <f>PRODUCT(H7:I7) + PRODUCT(K7:L7) * (M7 - N7) + PRODUCT(P7:Q7) * (R7 - S7)</f>
         <v>-1.9</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="102">
         <v>1</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="93">
         <v>1</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="103">
+      <c r="K7" s="102">
         <v>1</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="102">
         <v>0.5</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" s="93">
         <v>10</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <v>14</v>
       </c>
       <c r="O7" s="19"/>
-      <c r="P7" s="103">
+      <c r="P7" s="102">
         <v>1</v>
       </c>
-      <c r="Q7" s="103">
+      <c r="Q7" s="102">
         <v>0.15</v>
       </c>
-      <c r="R7" s="94">
+      <c r="R7" s="93">
         <v>8</v>
       </c>
-      <c r="S7" s="94">
+      <c r="S7" s="93">
         <f>N7</f>
         <v>14</v>
       </c>
@@ -7739,49 +7766,49 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="94">
         <f t="shared" ref="D8:D9" si="0">F8 + N8</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="94">
         <f t="shared" ref="F8:F9" si="1">PRODUCT(H8:I8) + PRODUCT(K8:L8) * (M8 - N8) + PRODUCT(P8:Q8) * (R8 - S8)</f>
         <v>3.55</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="102">
         <f t="shared" ref="H8:H9" si="2">H7</f>
         <v>1</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="93">
         <v>0</v>
       </c>
       <c r="J8" s="19"/>
-      <c r="K8" s="103">
+      <c r="K8" s="102">
         <f t="shared" ref="K8:K9" si="3">K7</f>
         <v>1</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="102">
         <f t="shared" ref="L8:L9" si="4">L7</f>
         <v>0.5</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="93">
         <v>13</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="93">
         <v>5</v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="103">
+      <c r="P8" s="102">
         <f t="shared" ref="P8:P9" si="5">P7</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="103">
+      <c r="Q8" s="102">
         <f t="shared" ref="Q8:Q9" si="6">Q7</f>
         <v>0.15</v>
       </c>
-      <c r="R8" s="94">
+      <c r="R8" s="93">
         <v>2</v>
       </c>
-      <c r="S8" s="94">
+      <c r="S8" s="93">
         <f>N8</f>
         <v>5</v>
       </c>
@@ -7790,74 +7817,74 @@
       <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="94">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="94">
         <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="102">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="93">
         <v>1</v>
       </c>
       <c r="J9" s="19"/>
-      <c r="K9" s="103">
+      <c r="K9" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="102">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="93">
         <v>8</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="93">
         <v>2</v>
       </c>
       <c r="O9" s="19"/>
-      <c r="P9" s="103">
+      <c r="P9" s="102">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="103">
+      <c r="Q9" s="102">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="R9" s="94">
+      <c r="R9" s="93">
         <v>0</v>
       </c>
-      <c r="S9" s="94">
+      <c r="S9" s="93">
         <f>N9</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88" t="str" cm="1">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87" t="str" cm="1">
         <f t="array" ref="D11">"Particle 1's Next Velocity: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(F7:F9, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Velocity: (-1.90, 3.55, 3.70)</v>
       </c>
-      <c r="M11" s="104" t="s">
+      <c r="M11" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88" t="str" cm="1">
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87" t="str" cm="1">
         <f t="array" ref="D12">"Particle 1's Next Position: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(D7:D9, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Position: (12.10, 8.55, 5.70)</v>
       </c>
@@ -7866,156 +7893,156 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M13" s="102" t="s">
+      <c r="M13" s="101" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93" t="s">
+      <c r="I17" s="92"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93" t="s">
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99" t="s">
+      <c r="E18" s="98"/>
+      <c r="F18" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99" t="s">
+      <c r="G18" s="98"/>
+      <c r="H18" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99" t="s">
+      <c r="J18" s="98"/>
+      <c r="K18" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="99" t="s">
+      <c r="L18" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="M18" s="99" t="s">
+      <c r="M18" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="N18" s="99" t="s">
+      <c r="N18" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99" t="s">
+      <c r="O18" s="98"/>
+      <c r="P18" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="99" t="s">
+      <c r="Q18" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="99" t="s">
+      <c r="R18" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="S18" s="99" t="s">
+      <c r="S18" s="98" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="96" t="s">
+      <c r="E19" s="91"/>
+      <c r="F19" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H19" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="96" t="s">
+      <c r="L19" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="96" t="s">
+      <c r="M19" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="N19" s="97" t="s">
+      <c r="N19" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="97" t="s">
+      <c r="O19" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="96" t="s">
+      <c r="P19" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" s="96" t="s">
+      <c r="Q19" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="R19" s="96" t="s">
+      <c r="R19" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="S19" s="97" t="s">
+      <c r="S19" s="96" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8023,44 +8050,44 @@
       <c r="C20" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="94">
         <f>F20 + N20</f>
         <v>13.6</v>
       </c>
-      <c r="F20" s="95">
+      <c r="F20" s="94">
         <f t="shared" ref="F20:F22" si="7">PRODUCT(H20:I20) + PRODUCT(K20:L20) * (M20 - N20) + PRODUCT(P20:Q20) * (R20 - S20)</f>
         <v>-0.4</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="102">
         <v>1</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="93">
         <v>1</v>
       </c>
       <c r="J20" s="19"/>
-      <c r="K20" s="103">
+      <c r="K20" s="102">
         <v>1</v>
       </c>
-      <c r="L20" s="103">
+      <c r="L20" s="102">
         <v>0.5</v>
       </c>
-      <c r="M20" s="94">
+      <c r="M20" s="93">
         <v>10</v>
       </c>
-      <c r="N20" s="94">
+      <c r="N20" s="93">
         <v>14</v>
       </c>
       <c r="O20" s="19"/>
-      <c r="P20" s="103">
+      <c r="P20" s="102">
         <v>1</v>
       </c>
-      <c r="Q20" s="103">
+      <c r="Q20" s="102">
         <v>0.15</v>
       </c>
-      <c r="R20" s="101">
+      <c r="R20" s="100">
         <v>18</v>
       </c>
-      <c r="S20" s="94">
+      <c r="S20" s="93">
         <f>N20</f>
         <v>14</v>
       </c>
@@ -8069,49 +8096,49 @@
       <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="94">
         <f t="shared" ref="D21:D22" si="8">F21 + N21</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="94">
         <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="102">
         <f t="shared" ref="H21:H22" si="9">H20</f>
         <v>1</v>
       </c>
-      <c r="I21" s="94">
+      <c r="I21" s="93">
         <v>0</v>
       </c>
       <c r="J21" s="19"/>
-      <c r="K21" s="103">
+      <c r="K21" s="102">
         <f t="shared" ref="K21:K22" si="10">K20</f>
         <v>1</v>
       </c>
-      <c r="L21" s="103">
+      <c r="L21" s="102">
         <f t="shared" ref="L21:L22" si="11">L20</f>
         <v>0.5</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="93">
         <v>13</v>
       </c>
-      <c r="N21" s="94">
+      <c r="N21" s="93">
         <v>5</v>
       </c>
       <c r="O21" s="19"/>
-      <c r="P21" s="103">
+      <c r="P21" s="102">
         <f t="shared" ref="P21:P22" si="12">P20</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="103">
+      <c r="Q21" s="102">
         <f t="shared" ref="Q21:Q22" si="13">Q20</f>
         <v>0.15</v>
       </c>
-      <c r="R21" s="101">
+      <c r="R21" s="100">
         <v>7</v>
       </c>
-      <c r="S21" s="94">
+      <c r="S21" s="93">
         <f>N21</f>
         <v>5</v>
       </c>
@@ -8120,74 +8147,74 @@
       <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="94">
         <f t="shared" si="8"/>
         <v>6.45</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="94">
         <f t="shared" si="7"/>
         <v>4.45</v>
       </c>
-      <c r="H22" s="103">
+      <c r="H22" s="102">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I22" s="94">
+      <c r="I22" s="93">
         <v>1</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="103">
+      <c r="K22" s="102">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L22" s="103">
+      <c r="L22" s="102">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="M22" s="94">
+      <c r="M22" s="93">
         <v>8</v>
       </c>
-      <c r="N22" s="94">
+      <c r="N22" s="93">
         <v>2</v>
       </c>
       <c r="O22" s="19"/>
-      <c r="P22" s="103">
+      <c r="P22" s="102">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="103">
+      <c r="Q22" s="102">
         <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
-      <c r="R22" s="101">
+      <c r="R22" s="100">
         <v>5</v>
       </c>
-      <c r="S22" s="94">
+      <c r="S22" s="93">
         <f>N22</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88" t="str" cm="1">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87" t="str" cm="1">
         <f t="array" ref="D24">"Particle 1's Next Velocity: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(F20:F22, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Velocity: (-0.40, 4.30, 4.45)</v>
       </c>
-      <c r="M24" s="104" t="s">
+      <c r="M24" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88" t="str" cm="1">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87" t="str" cm="1">
         <f t="array" ref="D25">"Particle 1's Next Position: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(D20:D22, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Position: (13.60, 9.30, 6.45)</v>
       </c>

--- a/04 - Exams/Final Exam/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/Scratch Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2386" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEAAD1BB-B0B8-493E-98E0-BDF5F57C5862}"/>
+  <xr:revisionPtr revIDLastSave="2431" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2AA74B0-7C00-456F-BF19-AECFF9D9862D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="134">
   <si>
     <t>Homes</t>
   </si>
@@ -639,6 +639,9 @@
       <t>]</t>
     </r>
   </si>
+  <si>
+    <t>Note on selection</t>
+  </si>
 </sst>
 </file>
 
@@ -648,8 +651,8 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -992,7 +995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1242,15 +1245,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4" tint="0.39991454817346722"/>
       </top>
@@ -1343,51 +1337,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
@@ -1419,7 +1368,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -1465,7 +1414,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1477,7 +1426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,13 +1434,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1508,10 +1457,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1522,51 +1471,37 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1600,12 +1535,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1623,16 +1588,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1743,6 +1698,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4767,7 +4732,7 @@
   </sheetPr>
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4873,7 +4838,7 @@
         <f>D6</f>
         <v>2</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="93">
         <f>E6</f>
         <v>0.24319750469207169</v>
       </c>
@@ -5072,7 +5037,7 @@
         <f>D23</f>
         <v>2</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="93">
         <f>E23</f>
         <v>-1.7005928892065527</v>
       </c>
@@ -5271,7 +5236,7 @@
         <f>D39</f>
         <v>1</v>
       </c>
-      <c r="E42" s="105">
+      <c r="E42" s="93">
         <f>E39</f>
         <v>-1.9991498832004151</v>
       </c>
@@ -5442,10 +5407,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6923,37 +6888,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="top10" dxfId="12" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M10">
-    <cfRule type="top10" dxfId="11" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M19">
-    <cfRule type="top10" dxfId="10" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:M28">
-    <cfRule type="top10" dxfId="9" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M37">
-    <cfRule type="top10" dxfId="8" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R10">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R19">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R28">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:W10">
-    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16:W19">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:W28">
-    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
@@ -6965,9 +6930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D9E231-3205-4664-A989-90DE24B2A06E}">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6976,16 +6939,16 @@
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="82" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="2:9" s="74" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -6996,22 +6959,22 @@
       <c r="B5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="81">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="81">
         <f t="shared" ref="D5:G5" si="0">C5 + 1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="81">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="81">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7021,208 +6984,208 @@
         <v>71</v>
       </c>
       <c r="C6" s="19" t="str">
-        <f>C9 &amp; "*" &amp; C5 &amp; " + "</f>
-        <v xml:space="preserve">x1*1 + </v>
+        <f>C5 &amp; "*" &amp; C9 &amp; " + "</f>
+        <v xml:space="preserve">1*x1 + </v>
       </c>
       <c r="D6" s="19" t="str">
-        <f t="shared" ref="D6:F6" si="1">D9 &amp; "*" &amp; D5 &amp; " + "</f>
-        <v xml:space="preserve">x2*2 + </v>
+        <f t="shared" ref="D6:G6" si="1">D5 &amp; "*" &amp; D9 &amp; " + "</f>
+        <v xml:space="preserve">2*x2 + </v>
       </c>
       <c r="E6" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">x3*3 + </v>
+        <v xml:space="preserve">3*x3 + </v>
       </c>
       <c r="F6" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">x4*4 + </v>
+        <v xml:space="preserve">4*x4 + </v>
       </c>
       <c r="G6" s="19" t="str">
-        <f t="shared" ref="G6" si="2">G9 &amp; "*" &amp; G5</f>
-        <v>x5*5</v>
+        <f>G5 &amp; "*" &amp; G9</f>
+        <v>5*x5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="79" t="str">
+      <c r="I9" s="71" t="str">
         <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
-        <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
+        <v>calculation: 1*x1 + 2*x2 + 3*x3 + 4*x4 + 5*x5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="65">
+      <c r="B10" s="63">
         <v>1</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="94">
         <v>1</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="94">
         <v>0</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="94">
         <v>0</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="94">
         <v>0</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="94">
         <v>1</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="62">
         <f>SUMPRODUCT(C10:G10, C$5:G$5)</f>
         <v>6</v>
       </c>
-      <c r="I10" s="80" t="str">
+      <c r="I10" s="72" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H10)</f>
         <v>=SUMPRODUCT(C10:G10, C$5:G$5)</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="66">
+      <c r="B11" s="64">
         <f>B10 + 1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="95">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="95">
         <v>0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="95">
         <v>1</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="95">
         <v>0</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="95">
         <v>1</v>
       </c>
-      <c r="H11" s="64">
-        <f t="shared" ref="H11:H13" si="3">SUMPRODUCT(C11:G11, C$5:G$5)</f>
+      <c r="H11" s="62">
+        <f>SUMPRODUCT(C11:G11, C$5:G$5)</f>
         <v>8</v>
       </c>
-      <c r="I11" s="80" t="str">
+      <c r="I11" s="72" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H11)</f>
         <v>=SUMPRODUCT(C11:G11, C$5:G$5)</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="66">
-        <f t="shared" ref="B12:B13" si="4">B11 + 1</f>
+      <c r="B12" s="64">
+        <f t="shared" ref="B12:B13" si="2">B11 + 1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="95">
         <v>0</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="95">
         <v>1</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="95">
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="95">
         <v>1</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="95">
         <v>1</v>
       </c>
-      <c r="H12" s="64">
-        <f t="shared" si="3"/>
+      <c r="H12" s="62">
+        <f>SUMPRODUCT(C12:G12, C$5:G$5)</f>
         <v>11</v>
       </c>
-      <c r="I12" s="80" t="str">
-        <f t="shared" ref="I12:I13" ca="1" si="5">_xlfn.FORMULATEXT(H12)</f>
+      <c r="I12" s="72" t="str">
+        <f t="shared" ref="I12:I13" ca="1" si="3">_xlfn.FORMULATEXT(H12)</f>
         <v>=SUMPRODUCT(C12:G12, C$5:G$5)</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="68">
-        <f t="shared" si="4"/>
+      <c r="B13" s="66">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="96">
         <v>1</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="96">
         <v>1</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="96">
         <v>0</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="96">
         <v>0</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="96">
         <v>0</v>
       </c>
-      <c r="H13" s="70">
-        <f t="shared" si="3"/>
+      <c r="H13" s="67">
+        <f t="shared" ref="H11:H13" si="4">SUMPRODUCT(C13:G13, C$5:G$5)</f>
         <v>3</v>
       </c>
-      <c r="I13" s="80" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I13" s="72" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=SUMPRODUCT(C13:G13, C$5:G$5)</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68">
         <f>SUM(H10:H13)</f>
         <v>28</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="67"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="I16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="2:9" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="61" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="60" t="s">
@@ -7231,185 +7194,190 @@
       <c r="D17" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="71" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="65">
+      <c r="B18" s="63">
         <v>1</v>
       </c>
-      <c r="C18" s="73">
-        <f t="shared" ref="C18:C21" si="6">H10</f>
+      <c r="C18" s="102">
+        <f t="shared" ref="C18:C21" si="5">H10</f>
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="102">
         <f>$H$14</f>
         <v>28</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="103">
         <f>C18 / D18</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="F18" s="80" t="str">
+      <c r="F18" s="72" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E18)</f>
         <v>=C18 / D18</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="66">
+      <c r="B19" s="64">
         <f>B18 + 1</f>
         <v>2</v>
       </c>
-      <c r="C19" s="73">
-        <f t="shared" si="6"/>
+      <c r="C19" s="106">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D21" si="7">$H$14</f>
+      <c r="D19" s="106">
+        <f t="shared" ref="D19:D21" si="6">$H$14</f>
         <v>28</v>
       </c>
-      <c r="E19" s="77">
-        <f t="shared" ref="E19:E21" si="8">C19 / D19</f>
+      <c r="E19" s="104">
+        <f t="shared" ref="E19:E21" si="7">C19 / D19</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F19" s="80" t="str">
+      <c r="F19" s="72" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E19)</f>
         <v>=C19 / D19</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="66">
-        <f t="shared" ref="B20:B21" si="9">B19 + 1</f>
+      <c r="B20" s="64">
+        <f t="shared" ref="B20:B21" si="8">B19 + 1</f>
         <v>3</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="106">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D20" s="106">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20" s="104">
         <f t="shared" si="7"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="F20" s="72" t="str">
+        <f t="shared" ref="F20:F21" ca="1" si="9">_xlfn.FORMULATEXT(E20)</f>
+        <v>=C20 / D20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="101">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="107">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="107">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E20" s="77">
-        <f t="shared" si="8"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="F20" s="80" t="str">
-        <f t="shared" ref="F20:F21" ca="1" si="10">_xlfn.FORMULATEXT(E20)</f>
-        <v>=C20 / D20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="68">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C21" s="74">
-        <f t="shared" si="6"/>
+      <c r="E21" s="105">
+        <f t="shared" si="7"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="F21" s="72" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>=C21 / D21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="74" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="64">
+        <f t="shared" ref="B30:G30" si="10">B12</f>
         <v>3</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="E21" s="78">
-        <f t="shared" si="8"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="F21" s="80" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>=C21 / D21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="82" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-    </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="79" t="str">
-        <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
-        <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="66">
-        <v>2</v>
-      </c>
-      <c r="C30" s="83">
+      <c r="C30" s="97">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="97">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="98">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F30" s="85">
+      <c r="F30" s="98">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G30" s="85">
+      <c r="G30" s="98">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="62">
         <f t="shared" ref="H30:H31" si="11">SUMPRODUCT(C30:G30, C$5:G$5)</f>
         <v>11</v>
       </c>
@@ -7418,26 +7386,31 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="68">
-        <f t="shared" ref="B31" si="12">B30 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="84">
+      <c r="B31" s="66">
+        <f t="shared" ref="B31:G31" si="12">B13</f>
+        <v>4</v>
+      </c>
+      <c r="C31" s="99">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="99">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="100">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F31" s="100">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="100">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="67">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
@@ -7446,121 +7419,121 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="79" t="str">
+      <c r="I34" s="71" t="str">
         <f>"calculation: " &amp; _xlfn.TEXTJOIN("", FALSE, $C$6:$G$6)</f>
-        <v>calculation: x1*1 + x2*2 + x3*3 + x4*4 + x5*5</v>
+        <v>calculation: 1*x1 + 2*x2 + 3*x3 + 4*x4 + 5*x5</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="83">
+      <c r="C35" s="97">
         <v>0</v>
       </c>
-      <c r="D35" s="83">
+      <c r="D35" s="97">
         <v>1</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E35" s="100">
         <v>0</v>
       </c>
-      <c r="F35" s="86">
+      <c r="F35" s="100">
         <v>0</v>
       </c>
-      <c r="G35" s="86">
+      <c r="G35" s="100">
         <v>0</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="62">
         <f t="shared" ref="H35:H36" si="13">SUMPRODUCT(C35:G35, C$5:G$5)</f>
         <v>2</v>
       </c>
-      <c r="I35" s="80" t="str">
+      <c r="I35" s="72" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H35)</f>
         <v>=SUMPRODUCT(C35:G35, C$5:G$5)</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="99">
         <v>1</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="99">
         <v>1</v>
       </c>
-      <c r="E36" s="85">
+      <c r="E36" s="98">
         <v>0</v>
       </c>
-      <c r="F36" s="85">
+      <c r="F36" s="98">
         <v>1</v>
       </c>
-      <c r="G36" s="85">
+      <c r="G36" s="98">
         <v>1</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="67">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I36" s="80" t="str">
+      <c r="I36" s="72" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H36)</f>
         <v>=SUMPRODUCT(C36:G36, C$5:G$5)</v>
       </c>
     </row>
-    <row r="38" spans="2:9" s="82" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B38" s="81" t="s">
+    <row r="38" spans="2:9" s="74" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B38" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="88" t="str">
+      <c r="C40" s="76" t="str">
         <f>B36 &amp; " (Fitness Value of " &amp; H36 &amp; ")"</f>
         <v>Offspring 2 (Fitness Value of 12)</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -7607,112 +7580,112 @@
       <c r="R2" s="59"/>
       <c r="S2" s="59"/>
     </row>
-    <row r="4" spans="2:19" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="92" t="s">
+    <row r="4" spans="2:19" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="K4" s="92" t="s">
+      <c r="I4" s="80"/>
+      <c r="K4" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="P4" s="92" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="P4" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-    </row>
-    <row r="5" spans="2:19" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="98" t="s">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+    </row>
+    <row r="5" spans="2:19" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="P5" s="98" t="s">
+      <c r="P5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="98" t="s">
+      <c r="Q5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="98" t="s">
+      <c r="R5" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="98" t="s">
+      <c r="S5" s="86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="97" t="s">
+    <row r="6" spans="2:19" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="95" t="s">
+      <c r="L6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="95" t="s">
+      <c r="R6" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="96" t="s">
+      <c r="S6" s="84" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7720,44 +7693,44 @@
       <c r="C7" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="82">
         <f>F7 + N7</f>
         <v>12.1</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="82">
         <f>PRODUCT(H7:I7) + PRODUCT(K7:L7) * (M7 - N7) + PRODUCT(P7:Q7) * (R7 - S7)</f>
         <v>-1.9</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="90">
         <v>1</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="81">
         <v>1</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="102">
+      <c r="K7" s="90">
         <v>1</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="90">
         <v>0.5</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="81">
         <v>10</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="81">
         <v>14</v>
       </c>
       <c r="O7" s="19"/>
-      <c r="P7" s="102">
+      <c r="P7" s="90">
         <v>1</v>
       </c>
-      <c r="Q7" s="102">
+      <c r="Q7" s="90">
         <v>0.15</v>
       </c>
-      <c r="R7" s="93">
+      <c r="R7" s="81">
         <v>8</v>
       </c>
-      <c r="S7" s="93">
+      <c r="S7" s="81">
         <f>N7</f>
         <v>14</v>
       </c>
@@ -7766,49 +7739,49 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="82">
         <f t="shared" ref="D8:D9" si="0">F8 + N8</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="82">
         <f t="shared" ref="F8:F9" si="1">PRODUCT(H8:I8) + PRODUCT(K8:L8) * (M8 - N8) + PRODUCT(P8:Q8) * (R8 - S8)</f>
         <v>3.55</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="90">
         <f t="shared" ref="H8:H9" si="2">H7</f>
         <v>1</v>
       </c>
-      <c r="I8" s="93">
+      <c r="I8" s="81">
         <v>0</v>
       </c>
       <c r="J8" s="19"/>
-      <c r="K8" s="102">
+      <c r="K8" s="90">
         <f t="shared" ref="K8:K9" si="3">K7</f>
         <v>1</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="90">
         <f t="shared" ref="L8:L9" si="4">L7</f>
         <v>0.5</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="81">
         <v>13</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="81">
         <v>5</v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="102">
+      <c r="P8" s="90">
         <f t="shared" ref="P8:P9" si="5">P7</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="102">
+      <c r="Q8" s="90">
         <f t="shared" ref="Q8:Q9" si="6">Q7</f>
         <v>0.15</v>
       </c>
-      <c r="R8" s="93">
+      <c r="R8" s="81">
         <v>2</v>
       </c>
-      <c r="S8" s="93">
+      <c r="S8" s="81">
         <f>N8</f>
         <v>5</v>
       </c>
@@ -7817,74 +7790,74 @@
       <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="82">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="82">
         <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="90">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="81">
         <v>1</v>
       </c>
       <c r="J9" s="19"/>
-      <c r="K9" s="102">
+      <c r="K9" s="90">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="90">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="81">
         <v>8</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="81">
         <v>2</v>
       </c>
       <c r="O9" s="19"/>
-      <c r="P9" s="102">
+      <c r="P9" s="90">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="102">
+      <c r="Q9" s="90">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="R9" s="93">
+      <c r="R9" s="81">
         <v>0</v>
       </c>
-      <c r="S9" s="93">
+      <c r="S9" s="81">
         <f>N9</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87" t="str" cm="1">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75" t="str" cm="1">
         <f t="array" ref="D11">"Particle 1's Next Velocity: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(F7:F9, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Velocity: (-1.90, 3.55, 3.70)</v>
       </c>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87" t="str" cm="1">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75" t="str" cm="1">
         <f t="array" ref="D12">"Particle 1's Next Position: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(D7:D9, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Position: (12.10, 8.55, 5.70)</v>
       </c>
@@ -7893,7 +7866,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M13" s="101" t="s">
+      <c r="M13" s="89" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7920,129 +7893,129 @@
       <c r="S15" s="59"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92" t="s">
+      <c r="I17" s="80"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92" t="s">
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98" t="s">
+      <c r="E18" s="86"/>
+      <c r="F18" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98" t="s">
+      <c r="G18" s="86"/>
+      <c r="H18" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98" t="s">
+      <c r="J18" s="86"/>
+      <c r="K18" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="98" t="s">
+      <c r="L18" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M18" s="98" t="s">
+      <c r="M18" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="N18" s="98" t="s">
+      <c r="N18" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98" t="s">
+      <c r="O18" s="86"/>
+      <c r="P18" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="98" t="s">
+      <c r="Q18" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="98" t="s">
+      <c r="R18" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="S18" s="98" t="s">
+      <c r="S18" s="86" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="97" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="95" t="s">
+      <c r="E19" s="79"/>
+      <c r="F19" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="95" t="s">
+      <c r="H19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="95" t="s">
+      <c r="I19" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="96" t="s">
+      <c r="J19" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="95" t="s">
+      <c r="K19" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="95" t="s">
+      <c r="L19" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="95" t="s">
+      <c r="M19" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="N19" s="96" t="s">
+      <c r="N19" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="96" t="s">
+      <c r="O19" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="95" t="s">
+      <c r="P19" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" s="95" t="s">
+      <c r="Q19" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="R19" s="95" t="s">
+      <c r="R19" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="S19" s="96" t="s">
+      <c r="S19" s="84" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8050,44 +8023,44 @@
       <c r="C20" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="82">
         <f>F20 + N20</f>
         <v>13.6</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="82">
         <f t="shared" ref="F20:F22" si="7">PRODUCT(H20:I20) + PRODUCT(K20:L20) * (M20 - N20) + PRODUCT(P20:Q20) * (R20 - S20)</f>
         <v>-0.4</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="90">
         <v>1</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="81">
         <v>1</v>
       </c>
       <c r="J20" s="19"/>
-      <c r="K20" s="102">
+      <c r="K20" s="90">
         <v>1</v>
       </c>
-      <c r="L20" s="102">
+      <c r="L20" s="90">
         <v>0.5</v>
       </c>
-      <c r="M20" s="93">
+      <c r="M20" s="81">
         <v>10</v>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="81">
         <v>14</v>
       </c>
       <c r="O20" s="19"/>
-      <c r="P20" s="102">
+      <c r="P20" s="90">
         <v>1</v>
       </c>
-      <c r="Q20" s="102">
+      <c r="Q20" s="90">
         <v>0.15</v>
       </c>
-      <c r="R20" s="100">
+      <c r="R20" s="88">
         <v>18</v>
       </c>
-      <c r="S20" s="93">
+      <c r="S20" s="81">
         <f>N20</f>
         <v>14</v>
       </c>
@@ -8096,49 +8069,49 @@
       <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="82">
         <f t="shared" ref="D21:D22" si="8">F21 + N21</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="82">
         <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
-      <c r="H21" s="102">
+      <c r="H21" s="90">
         <f t="shared" ref="H21:H22" si="9">H20</f>
         <v>1</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="81">
         <v>0</v>
       </c>
       <c r="J21" s="19"/>
-      <c r="K21" s="102">
+      <c r="K21" s="90">
         <f t="shared" ref="K21:K22" si="10">K20</f>
         <v>1</v>
       </c>
-      <c r="L21" s="102">
+      <c r="L21" s="90">
         <f t="shared" ref="L21:L22" si="11">L20</f>
         <v>0.5</v>
       </c>
-      <c r="M21" s="93">
+      <c r="M21" s="81">
         <v>13</v>
       </c>
-      <c r="N21" s="93">
+      <c r="N21" s="81">
         <v>5</v>
       </c>
       <c r="O21" s="19"/>
-      <c r="P21" s="102">
+      <c r="P21" s="90">
         <f t="shared" ref="P21:P22" si="12">P20</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="102">
+      <c r="Q21" s="90">
         <f t="shared" ref="Q21:Q22" si="13">Q20</f>
         <v>0.15</v>
       </c>
-      <c r="R21" s="100">
+      <c r="R21" s="88">
         <v>7</v>
       </c>
-      <c r="S21" s="93">
+      <c r="S21" s="81">
         <f>N21</f>
         <v>5</v>
       </c>
@@ -8147,74 +8120,74 @@
       <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="82">
         <f t="shared" si="8"/>
         <v>6.45</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="82">
         <f t="shared" si="7"/>
         <v>4.45</v>
       </c>
-      <c r="H22" s="102">
+      <c r="H22" s="90">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="81">
         <v>1</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="102">
+      <c r="K22" s="90">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L22" s="102">
+      <c r="L22" s="90">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="M22" s="93">
+      <c r="M22" s="81">
         <v>8</v>
       </c>
-      <c r="N22" s="93">
+      <c r="N22" s="81">
         <v>2</v>
       </c>
       <c r="O22" s="19"/>
-      <c r="P22" s="102">
+      <c r="P22" s="90">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="102">
+      <c r="Q22" s="90">
         <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
-      <c r="R22" s="100">
+      <c r="R22" s="88">
         <v>5</v>
       </c>
-      <c r="S22" s="93">
+      <c r="S22" s="81">
         <f>N22</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87" t="str" cm="1">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75" t="str" cm="1">
         <f t="array" ref="D24">"Particle 1's Next Velocity: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(F20:F22, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Velocity: (-0.40, 4.30, 4.45)</v>
       </c>
-      <c r="M24" s="103" t="s">
+      <c r="M24" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87" t="str" cm="1">
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75" t="str" cm="1">
         <f t="array" ref="D25">"Particle 1's Next Position: (" &amp; _xlfn.TEXTJOIN(", ", FALSE, TEXT(D20:D22, "0.00")) &amp; ")"</f>
         <v>Particle 1's Next Position: (13.60, 9.30, 6.45)</v>
       </c>

--- a/04 - Exams/Final Exam/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/Scratch Work.xlsx
@@ -6930,7 +6930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D9E231-3205-4664-A989-90DE24B2A06E}">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6988,7 +6990,7 @@
         <v xml:space="preserve">1*x1 + </v>
       </c>
       <c r="D6" s="19" t="str">
-        <f t="shared" ref="D6:G6" si="1">D5 &amp; "*" &amp; D9 &amp; " + "</f>
+        <f t="shared" ref="D6:F6" si="1">D5 &amp; "*" &amp; D9 &amp; " + "</f>
         <v xml:space="preserve">2*x2 + </v>
       </c>
       <c r="E6" s="19" t="str">
@@ -7149,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="67">
-        <f t="shared" ref="H11:H13" si="4">SUMPRODUCT(C13:G13, C$5:G$5)</f>
+        <f t="shared" ref="H13" si="4">SUMPRODUCT(C13:G13, C$5:G$5)</f>
         <v>3</v>
       </c>
       <c r="I13" s="72" t="str">

--- a/04 - Exams/Final Exam/Scratch Work.xlsx
+++ b/04 - Exams/Final Exam/Scratch Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/OU-DSA/Metaheuristics/04 - Exams/Final Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2431" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2AA74B0-7C00-456F-BF19-AECFF9D9862D}"/>
+  <xr:revisionPtr revIDLastSave="2439" documentId="8_{95246F2C-C168-41E5-A1C7-009DBE91BAA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{714A68D3-5AAC-44D9-B3CF-0507ACEF33D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{13749BB5-FA31-4FD1-84DD-A03444A0C98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -6930,8 +6930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D9E231-3205-4664-A989-90DE24B2A06E}">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7547,7 +7547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895B05CD-FAB1-4C89-B1C6-06C444B2D419}">
   <dimension ref="A2:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
